--- a/src/testdata.xlsx
+++ b/src/testdata.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2445" windowWidth="11595" windowHeight="3165"/>
+    <workbookView xWindow="0" yWindow="2445" windowWidth="15015" windowHeight="2835"/>
   </bookViews>
   <sheets>
     <sheet name="LoginTest" sheetId="2" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="52">
   <si>
     <t>email</t>
   </si>
@@ -127,9 +127,6 @@
     <t>a12567</t>
   </si>
   <si>
-    <t>mrd</t>
-  </si>
-  <si>
     <t>Year</t>
   </si>
   <si>
@@ -142,15 +139,6 @@
     <t>123789b</t>
   </si>
   <si>
-    <t>Miss</t>
-  </si>
-  <si>
-    <t>1456987ead</t>
-  </si>
-  <si>
-    <t>lnumfer</t>
-  </si>
-  <si>
     <t>a1256847</t>
   </si>
   <si>
@@ -163,16 +151,31 @@
     <t>fg433335678</t>
   </si>
   <si>
-    <t>Ntesdede</t>
-  </si>
-  <si>
-    <t>ab567899dclke</t>
-  </si>
-  <si>
     <t>new193963@gmail.com</t>
   </si>
   <si>
-    <t>tech7502850@gmail.com</t>
+    <t>Male</t>
+  </si>
+  <si>
+    <t>Mr</t>
+  </si>
+  <si>
+    <t>mrdt</t>
+  </si>
+  <si>
+    <t>9d56987ead</t>
+  </si>
+  <si>
+    <t>Dp987899dclkz</t>
+  </si>
+  <si>
+    <t>673wa@gmail.com</t>
+  </si>
+  <si>
+    <t>Frante</t>
+  </si>
+  <si>
+    <t>Fahaope</t>
   </si>
 </sst>
 </file>
@@ -503,7 +506,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -513,8 +516,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="P1" workbookViewId="0">
-      <selection activeCell="R3" sqref="R3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -616,13 +619,13 @@
         <v>21</v>
       </c>
       <c r="C2" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="D2" t="s">
         <v>33</v>
       </c>
       <c r="E2" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="F2">
         <f>INT(29)</f>
@@ -648,7 +651,7 @@
         <v>28</v>
       </c>
       <c r="M2" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="N2" t="s">
         <v>29</v>
@@ -660,7 +663,7 @@
         <v>31</v>
       </c>
       <c r="Q2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="R2" t="s">
         <v>32</v>
@@ -677,42 +680,42 @@
         <v>887321457896</v>
       </c>
       <c r="V2" s="3" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="W2"/>
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="B3" t="s">
-        <v>21</v>
+        <v>44</v>
       </c>
       <c r="C3" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="D3" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="E3" t="s">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="F3">
         <f>INT(49)</f>
         <v>49</v>
       </c>
       <c r="G3" t="s">
+        <v>35</v>
+      </c>
+      <c r="H3">
+        <f>INT("222789456")</f>
+        <v>222789456</v>
+      </c>
+      <c r="I3" t="s">
         <v>36</v>
       </c>
-      <c r="H3">
-        <f>INT("98454677567")</f>
-        <v>98454677567</v>
-      </c>
-      <c r="I3" t="s">
-        <v>37</v>
-      </c>
       <c r="J3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K3" t="s">
         <v>27</v>
@@ -733,24 +736,24 @@
         <v>31</v>
       </c>
       <c r="Q3" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="R3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="S3" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="T3">
-        <f>INT(73224258209)</f>
-        <v>73224258209</v>
+        <f>INT(3224258209)</f>
+        <v>3224258209</v>
       </c>
       <c r="U3">
-        <f>INT(5421456789)</f>
-        <v>5421456789</v>
+        <f>INT(421456789)</f>
+        <v>421456789</v>
       </c>
       <c r="V3" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="W3"/>
     </row>
